--- a/Report Phase 1/Kuisioner FYI Tech (Responses).xlsx
+++ b/Report Phase 1/Kuisioner FYI Tech (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="235">
   <si>
     <t>Timestamp</t>
   </si>
@@ -25,34 +25,34 @@
     <t>Pekerjaan</t>
   </si>
   <si>
-    <t>1. Jika anda membeli laptop baru apa yang biasanya anda lihat</t>
-  </si>
-  <si>
-    <t>2. untuk apa anda membeli laptop?</t>
-  </si>
-  <si>
-    <t>3. Saat melihat spesifikasi laptop pertama kali apa yang pertama kali kalian pertimbangkan?</t>
-  </si>
-  <si>
-    <t>4. kisaran harga berapa laptop yang banyak di review?</t>
-  </si>
-  <si>
-    <t>5. Apakah sebelum membeli laptop anda mencari-cari info terlebih dahulu</t>
-  </si>
-  <si>
-    <t>6. Biasanya dalam bentuk apa anda mencari sesuatu info terkait laptop? (Boleh pilih lebih dari satu)</t>
-  </si>
-  <si>
-    <t>7. Apakah menurutmu web forum seputar laptop ini dapat membantumu untuk menemukan laptop yang kamu butuhkan?</t>
-  </si>
-  <si>
-    <t>8. Biasanya di platform apa anda mencari ataupun berbagi info terkait laptop? (Boleh lebih dari satu)</t>
-  </si>
-  <si>
-    <t>9.  Adakah kekurangan yang kalian rasakan ketika mencari atau berbagi info di platform yang anda biasa gunakan? (tulis "tidak ada" jika kalian merasa tidak ada kekurangan</t>
-  </si>
-  <si>
-    <t>10. Fitur apa yang kalian inginkan/perlukan dalam app/web ini?</t>
+    <t>1.	Jika anda memutuskan membeli laptop baru apa yang biasanya anda lihat pertama?</t>
+  </si>
+  <si>
+    <t>2.	Untuk apa anda membeli laptop?</t>
+  </si>
+  <si>
+    <t>3.	Saat melihat spesifikasi laptop, apa yang pertama kali anda pertimbangkan sebelum membelinya?</t>
+  </si>
+  <si>
+    <t>4.	Kisaran harga laptop yang anda cari?</t>
+  </si>
+  <si>
+    <t>5. Apakah sebelum membeli laptop anda mencari info terlebih dahulu</t>
+  </si>
+  <si>
+    <t>6.	Informasi dalam bentuk apa yang biasanya anda cari? (Boleh pilih lebih dari satu)</t>
+  </si>
+  <si>
+    <t>9.	Apakah menurut anda dengan adanya web forum seputar laptop ini dapat membantu anda untuk menemukan laptop yang dibutuhkan?</t>
+  </si>
+  <si>
+    <t>7.	Dimana anda biasa mencari ataupun berbagi info terkait laptop? (Boleh lebih dari satu)</t>
+  </si>
+  <si>
+    <t>8.  Adakah kekurangan yang kalian rasakan ketika mencari atau berbagi info di platform yang anda biasa gunakan? (tulis "tidak ada" jika kalian merasa tidak ada kekurangan</t>
+  </si>
+  <si>
+    <t>10.	Fitur apa yang kalian inginkan/perlukan untuk ada di web ini?</t>
   </si>
   <si>
     <t>farhan.herdia123@gmail.com</t>
@@ -733,7 +733,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -743,6 +743,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -758,11 +759,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1004,1748 +1008,1792 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44149.5231547338</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>44149.523705451385</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>44149.5257140162</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>44149.52736017361</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>44149.527685925925</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>44149.536615833335</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>44149.55847584491</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>44149.576475821756</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>44150.676860590276</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>44150.67740956019</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>44150.679881759264</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>44150.68149503472</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>44150.68628451389</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>44150.68890258102</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>44150.69892131945</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>44150.6992674537</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="H17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>44150.70098299769</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>44150.70197756945</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>44150.70754221064</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>44150.713129375</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>44150.72139612268</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="K22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>44151.05363038194</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>44151.52249924769</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>44151.522638344904</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>44151.52422424768</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="H26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="K26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>44151.7303640162</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>44151.7352656713</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="I28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>44151.74526732639</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="H29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>44151.77193407407</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="H30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>44151.79648244213</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>44151.81059969908</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="H32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>44151.82651515046</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="E33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="H33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>44152.58757094908</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="E34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="3" t="s">
+      <c r="H34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>44152.60496978009</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="3" t="s">
+      <c r="H35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N35" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>44152.61105815972</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="H36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="3" t="s">
+      <c r="K36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>44152.65412115741</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="E37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="H37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="K37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>44152.66790697917</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="H38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>44152.682027766205</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="E39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="H39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>44152.86322339121</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="E40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="3" t="s">
+      <c r="I40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="M40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="4" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3">
+        <v>44153.733978449076</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
